--- a/frontend-cemos/public/assets/content/direito/1-ema-135/script/fc5.xlsx
+++ b/frontend-cemos/public/assets/content/direito/1-ema-135/script/fc5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>As convenções internacionais, o costume internacional e os princípios gerais de direito.</t>
+          <t>As convenções internacionais, o costume internacional e os princípios gerais de direito. As decisões judiciais e a doutrina dos publicistas internacionais são consideradas secuntárias ou acessórias.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -529,12 +529,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Qual é o propósito da Carta das Nações Unidas em relação aos Estados-membros?</t>
+          <t>Além das fontes previstas no art. 38 do Estatuto da CIJ, que outros elementos são admitidos como fontes do Direito Internacional Público?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Estabelecer um pacto voltado para a manutenção da paz e segurança internacionais e a promoção do progresso econômico e social.</t>
+          <t>As decisões das organizações internacionais (Ex: Resolução/ONU 678 (1990) autorizando o uso da força para expulsar o Iraque do Kuwait.) e os atos unilaterais dos Estados (Reconhecimento do Kosovo por parte de Estados ocidentais.) também são reconhecidos como fontes do DIP, complementando o rol estatutário tradicional.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -557,18 +557,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cite um dos propósitos da ONU em relação à segurança internacional.</t>
+          <t>Qual é o propósito da Carta das Nações Unidas em relação aos Estados-membros?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tomar, coletivamente, medidas efetivas para evitar ameaças à paz e reprimir os atos de agressão ou outra qualquer ruptura da paz.</t>
+          <t>Estabelecer um pacto voltado para a manutenção da paz e segurança internacionais e a promoção do progresso econômico e social.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág 78</t>
+          <t>Pág 77</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -585,12 +585,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Qual princípio da Carta da ONU exige que os Membros resolvam suas controvérsias internacionais?</t>
+          <t>Cite um dos propósitos da ONU em relação à segurança internacional.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Todos os Membros deverão resolver suas controvérsias internacionais por meios pacíficos.</t>
+          <t>Tomar, coletivamente, medidas efetivas para evitar ameaças à paz e reprimir os atos de agressão ou outra qualquer ruptura da paz.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -613,12 +613,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Qual ato a Carta da ONU proíbe que os Membros pratiquem em suas relações internacionais (Princípio d)?</t>
+          <t>Qual princípio da Carta da ONU exige que os Membros resolvam suas controvérsias internacionais?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ameaça ou o uso da força contra a integridade territorial ou a dependência política de qualquer Estado.</t>
+          <t>Todos os Membros deverão resolver suas controvérsias internacionais por meios pacíficos.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -641,18 +641,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Quais são os seis órgãos principais da ONU, conforme o Artigo 7º da Carta?</t>
+          <t>Qual ato a Carta da ONU proíbe que os Membros pratiquem em suas relações internacionais (Princípio d)?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Assembleia Geral, Conselho de Segurança, Conselho Econômico e Social, Conselho de Tutela, Corte Internacional de Justiça e Secretariado.</t>
+          <t>Ameaça ou o uso da força contra a integridade territorial ou a dependência política de qualquer Estado.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág 79</t>
+          <t>Pág 78</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -669,18 +669,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Qual é a natureza das decisões da Assembleia Geral da ONU para os Estados-membros?</t>
+          <t>Quais são os principais propósitos das Nações Unidas conforme estabelecido na Carta da ONU?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Não têm caráter obrigatório, sendo apenas recomendações.</t>
+          <t>Manter a paz e a segurança internacionais; desenvolver relações amistosas entre as nações; promover a cooperação internacional para solução de problemas econômicos, sociais, culturais ou humanitários; e harmonizar a ação dos Estados na consecução desses objetivos comuns.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág 79</t>
+          <t>Pág 78</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -697,18 +697,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Como é composto o Conselho de Segurança em termos de membros permanentes e não permanentes?</t>
+          <t>Quais são os princípios que orientam a atuação dos Estados-membros segundo a Carta das Nações Unidas?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Quinze membros: cinco permanentes (China, Rússia, Reino Unido, EUA e França) e dez eleitos por um período de dois anos.</t>
+          <t>Igualdade soberana dos Estados; cumprimento de boa-fé das obrigações; solução pacífica de controvérsias; abstenção do uso ou ameaça de força; assistência às ações da ONU; conformidade dos Estados não membros; e não intervenção em assuntos internos, ressalvadas as medidas do Capítulo VII. Mnemônico: "Amigos **Iguais** e de **Boa Fé** resolvem tudo em **Paz**. Sem usar **Força**, dão **Assistência** aos outros, **influenciam os Não Membros** e nunca se metem nos **assuntos internos**."</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág 79</t>
+          <t>Pág 78</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -725,18 +725,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Quais são os meios coercitivos mais empregados para solução de controvérsias, sem recorrer ao ataque armado?</t>
+          <t>Quais são os seis órgãos principais da ONU, conforme o Artigo 7º da Carta?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Retorsão, represália, embargo, bloqueio pacífico, boicote e rompimento das relações diplomáticas.</t>
+          <t>Assembleia Geral, Conselho de Segurança, Conselho Econômico e Social, Conselho de Tutela, Corte Internacional de Justiça e Secretariado.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág 80</t>
+          <t>Pág 79</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -753,18 +753,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Qual a condição para que os meios coercitivos de solução de controvérsias sejam compatíveis com o DIP?</t>
+          <t>Qual é a natureza das decisões da Assembleia Geral da ONU para os Estados-membros?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Devem ser empregados de acordo ou em atendimento às determinações da ONU, em especial do Conselho de Segurança.</t>
+          <t>Não têm caráter obrigatório, sendo apenas recomendações.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág 80</t>
+          <t>Pág 79</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -781,18 +781,18 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Qual a diferença fundamental entre Retorsão e Represália?</t>
+          <t>Como é composto o Conselho de Segurança em termos de membros permanentes e não permanentes?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Retorsão é lícita e motivada por um ato que o direito não proíbe, enquanto a represália se baseia na violação de normas internacionais (ato ilícito).</t>
+          <t>Quinze membros: cinco permanentes (China, Rússia, Reino Unido, EUA e França) e dez eleitos por um período de dois anos.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág 80</t>
+          <t>Pág 79</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -809,18 +809,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A Represália exige identidade dos meios aplicados em relação ao ato ofensor?</t>
+          <t>Quais são os meios coercitivos mais empregados para solução de controvérsias, sem recorrer ao ataque armado?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Não exige, necessariamente, essa identidade.</t>
+          <t>Retorsão, represália, embargo, bloqueio pacífico, boicote e rompimento das relações diplomáticas.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág 81</t>
+          <t>Pág 80</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -837,18 +837,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cite um princípio que deve ser observado para que a represália seja admitida pelo DIP.</t>
+          <t>Qual a condição para que os meios coercitivos de solução de controvérsias sejam compatíveis com o DIP?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Deve ser proporcional ao dano sofrido e só se justifica depois de esgotados outros meios de restabelecimento da ordem jurídica.</t>
+          <t>Devem ser empregados de acordo ou em atendimento às determinações da ONU, em especial do Conselho de Segurança.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág 81</t>
+          <t>Pág 80</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>O que é o Embargo, enquanto forma especial de represália?</t>
+          <t>O que é retorsão no âmbito do Direito Internacional e qual um exemplo clássico dessa medida?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Apreensão, em plena paz, de navios e cargas de um Estado estrangeiro, ancorados nos portos ou águas territoriais do Estado que o emprega.</t>
+          <t>Retorsão é o ato pelo qual um Estado responde, de forma lícita e pouco amistosa, aplicando ao outro Estado as mesmas medidas que este lhe impôs, ainda que tais atos não sejam proibidos pelo DIP. Exemplo: aumento exagerado de tarifas de importação contra o Estado que adotou medida semelhante - China x EUA.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -893,18 +893,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Qual é a forma de bloqueio pacífico que o DIP, em princípio, não reconhece a legalidade?</t>
+          <t>Como se define a represália nas relações internacionais e qual um exemplo típico dessa prática?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>O que impede a entrada e saída de quaisquer navios, independentemente da sua nacionalidade, por atingir terceiros.</t>
+          <t>Represália é uma medida coercitiva tomada por um Estado em resposta a um ato ilícito cometido por outro, visando obrigá-lo a respeitar o direito, podendo incluir ações hostis ou não agressivas. Exemplo: penhora forçada de bens invioláveis de um escritório consular após violação grave do DIP.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pág 82</t>
+          <t>Pág 81</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -921,18 +921,18 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>O que acontece com os navios violadores de um bloqueio pacífico legal após a cessação do bloqueio?</t>
+          <t>Qual a diferença fundamental entre Retorsão e Represália?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Devem ser submetidos apenas a sequestro e restituídos, com suas cargas, sem direito a indenização.</t>
+          <t>Retorsão é lícita e motivada por um ato que o direito não proíbe, enquanto a represália se baseia na violação de normas internacionais (ato ilícito).</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pág 82</t>
+          <t>Pág 80</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -949,18 +949,18 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Qual é a extensão da vedação do uso da força imposta pela Carta das Nações Unidas?</t>
+          <t>A Represália exige identidade dos meios aplicados em relação ao ato ofensor?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Alcança até mesmo a ameaça de seu emprego, além do uso discricionário da força.</t>
+          <t>Não exige, necessariamente, essa identidade.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pág 82</t>
+          <t>Pág 81</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -977,18 +977,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Quais medidas devem preceder as ações militares de imposição da paz do Conselho de Segurança (Art. 42)?</t>
+          <t>Cite um princípio que deve ser observado para que a represália seja admitida pelo DIP.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ações que não envolvam forças armadas, como a interrupção completa ou parcial das relações econômicas ou rompimento de relações diplomáticas.</t>
+          <t>Deve ser proporcional ao dano sofrido e só se justifica depois de esgotados outros meios de restabelecimento da ordem jurídica.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pág 83</t>
+          <t>Pág 81</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1005,18 +1005,18 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>O uso da força para a legítima defesa individual exige autorização prévia do Conselho de Segurança?</t>
+          <t>O que é o Embargo, enquanto forma especial de represália?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Não exige autorização prévia do Conselho de Segurança ou de qualquer outro organismo da ONU.</t>
+          <t>Apreensão, em plena paz, de navios e cargas de um Estado estrangeiro, ancorados nos portos ou águas territoriais do Estado que o emprega.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pág 83</t>
+          <t>Pág 81</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1033,18 +1033,18 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Qual é a obrigação dos Estados que agem em legítima defesa em relação ao Conselho de Segurança?</t>
+          <t>Qual é a forma de bloqueio pacífico que o DIP, em princípio, não reconhece a legalidade?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Informar ao Conselho de Segurança sobre suas ações, imediatamente após a ocorrência do evento.</t>
+          <t>O que impede a entrada e saída de quaisquer navios, independentemente da sua nacionalidade, por atingir terceiros.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pág 83</t>
+          <t>Pág 82</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1061,18 +1061,18 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Quais são os dois requisitos para que a legítima defesa coletiva seja considerada legítima?</t>
+          <t>O que acontece com os navios violadores de um bloqueio pacífico legal após a cessação do bloqueio?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A vítima deve declarar que foi agredida e deve haver uma solicitação de assistência por parte dela.</t>
+          <t>Devem ser submetidos apenas a sequestro e restituídos, com suas cargas, sem direito a indenização.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pág 84</t>
+          <t>Pág 82</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1089,18 +1089,18 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Qual a condição imposta pela Carta da ONU para que organizações regionais (Cap. VIII) conduzam ações coercitivas?</t>
+          <t>Qual é a extensão da vedação do uso da força imposta pela Carta das Nações Unidas?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nenhuma ação coercitiva pode ser conduzida sem a devida autorização do Conselho de Segurança.</t>
+          <t>Alcança até mesmo a ameaça de seu emprego, além do uso discricionário da força.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pág 84</t>
+          <t>Pág 82</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1117,18 +1117,18 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>O que a Diplomacia Preventiva busca evitar e o que o envolvimento militar pode incluir nela?</t>
+          <t>Quais medidas devem preceder as ações militares de imposição da paz do Conselho de Segurança (Art. 42)?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Evitar o surgimento de controvérsias que possam redundar em conflito, podendo incluir o deslocamento de forças navais.</t>
+          <t>Ações que não envolvam forças armadas, como a interrupção completa ou parcial das relações econômicas ou rompimento de relações diplomáticas.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pág 84</t>
+          <t>Pág 83</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1145,18 +1145,18 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Qual a característica fundamental e a restrição de uso da força nas operações de Manutenção da Paz (*Peace Keeping*)?</t>
+          <t>O uso da força para a legítima defesa individual exige autorização prévia do Conselho de Segurança?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>São realizadas com o consentimento prévio das partes oponentes e limitam o uso da força aos casos de legítima defesa (autodefesa).</t>
+          <t>Não exige autorização prévia do Conselho de Segurança ou de qualquer outro organismo da ONU.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pág 85</t>
+          <t>Pág 83</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1173,18 +1173,18 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>O que caracteriza as operações de Imposição da Paz (*Peace Enforcement*)?</t>
+          <t>Qual é a obrigação dos Estados que agem em legítima defesa em relação ao Conselho de Segurança?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Aplicação de força militar ou ameaça de seu emprego para compelir aceitação de resoluções, conduzida sem o consentimento de todas as partes.</t>
+          <t>Informar ao Conselho de Segurança sobre suas ações, imediatamente após a ocorrência do evento.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pág 85</t>
+          <t>Pág 83</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1201,21 +1201,329 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cite uma ação pós-conflito que compõe a Consolidação da Paz (*Peace Building*).</t>
+          <t>Quais são os dois requisitos para que a legítima defesa coletiva seja considerada legítima?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Desarmamento de forças oponentes, repatriação de refugiados ou reforma de instituições governamentais.</t>
+          <t>A vítima **deve declarar** que foi agredida e deve haver uma **solicitação de assistência por parte dela**.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
+          <t>Pág 84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Cap. 5 - O Direito Internacional público aplicado em tempo de paz</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Qual a condição imposta pela Carta da ONU para que organizações regionais (Cap. VIII) conduzam ações coercitivas?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Nenhuma ação coercitiva pode ser conduzida sem a devida autorização do Conselho de Segurança.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Pág 84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Cap. 5 - O Direito Internacional público aplicado em tempo de paz</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>O que a Diplomacia Preventiva busca evitar e o que o envolvimento militar pode incluir nela?</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Evitar o surgimento de controvérsias que possam redundar em conflito, podendo incluir o deslocamento de forças navais. (Ex: Missões de Observação da ONU na Macedônia (UNPREDEP, 1995–1999)).</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Pág 84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Cap. 5 - O Direito Internacional público aplicado em tempo de paz</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>O fato de o Conselho de Segurança poder adotar medidas previstas no Capítulo VII da Carta das Nações Unidas resulta em que para a ONU?</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Credibilidade. (Retirado do Simulado)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Pág 79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Cap. 5 - O Direito Internacional público aplicado em tempo de paz</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Qual a característica fundamental e a restrição de uso da força nas operações de Manutenção da Paz (*Peace Keeping*)?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>São realizadas com o consentimento prévio das partes oponentes e limitam o uso da força aos casos de legítima defesa (autodefesa) (Ex: UNIFIL (Líbano)).</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Pág 85</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Cap. 5 - O Direito Internacional público aplicado em tempo de paz</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>O que caracteriza as operações de Imposição da Paz (*Peace Enforcement*)?</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Aplicação de força militar ou ameaça de seu emprego para compelir aceitação de resoluções, conduzida sem o consentimento de todas as partes. Ex: Intervenção da ONU na Coreia (1950) e Intervenção na Líbia (2011)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Pág 85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Cap. 5 - O Direito Internacional público aplicado em tempo de paz</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>O que caracteriza as operações de Imposição da Paz (*Peace Enforcement*)?</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Aplicação de força militar ou ameaça de seu emprego para compelir aceitação de resoluções, conduzida sem o consentimento de todas as partes. Ex: Intervenção da ONU na Coreia (1950) e Intervenção na Líbia (2011)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Pág 85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Cap. 5 - O Direito Internacional público aplicado em tempo de paz</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Explique a diferença entre a Consolidação da Paz e a Imposição? Cite um exemplo de emprego naval previsto nestes tipos de Operação de Paz.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Imposição da Paz (Peace Enforcement) =&gt; Força militar impõe a paz ou a aceitação de resoluções ou sanções acordadas que não estejam sendo aceitas ou cumpridas pelas partes beligerantes (Demonstrações, bloqueio etc). Consolidação da Paz (Peace Building) =&gt; Ações pós conflito, predominantemente econômicas e diplomáticas, para restabelecer a ordem e a confiança da população (Ex. Infraestrutura governamental) =&gt; Ações de forças navais podem ser: ações de presença, vigilância, apoio logístico móvel, limpeza de minas e apoio à força de combate terrestre.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Pág 85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Cap. 5 - O Direito Internacional público aplicado em tempo de paz</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Quais são as condições necessárias para que o bloqueio pacífico seja considerado legal segundo o Direito Internacional Público?</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>(1) O bloqueio não pode atingir terceiros devendo se limitar aos navios pertencentes a nacionais do Estado bloqueado; (2) O bloqueio deve ser **declarado** e oficialmente **notificado**, sendo mantido por força suficiente; e os navios que o violarem devem ser submetidos **apenas sequestro (apreensão)**, com posterior restituição após o fim do bloqueio, **sem direito a indenização**.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Pág 82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Cap. 5 - O Direito Internacional público aplicado em tempo de paz</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Qual é a regra geral sobre a vedação do uso da força nas relações internacionais e quais são as exceções admitidas pelo Direito Internacional Público?</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A Carta da ONU proíbe o uso e a ameaça de uso da força entre Estados; contudo, admite exceções nos casos de legítima defesa (art. 51), de ações autorizadas pelo Conselho de Segurança para manutenção da segurança coletiva (art. 39) e nas lutas de autodeterminação dos povos, conforme a Resolução/ONU 2625 (XXV).</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Pág 82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Cap. 5 - O Direito Internacional público aplicado em tempo de paz</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Quais são exemplos de organizações regionais que podem atuar na manutenção da paz e segurança conforme o Capítulo VIII da Carta da ONU?</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A Organização para Segurança e Cooperação na Europa (OSCE) e a Organização dos Estados Americanos (OEA) são exemplos de organismos regionais reconhecidos como aptos a atuar na manutenção da paz e segurança regionais, desde que autorizados pelo Conselho de Segurança.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Pág 83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Cap. 5 - O Direito Internacional público aplicado em tempo de paz</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Quais são os cinco tipos de operações de paz conduzidas pela ONU?</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Diplomacia Preventiva, Restabelecimento da Paz (Peace Making), Manutenção da Paz (Peace Keeping), Imposição da Paz (Peace Enforcement) e Consolidação da Paz (Peace Building).</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Pág 84–85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
         <is>
           <t>Cap. 5 - O Direito Internacional público aplicado em tempo de paz</t>
         </is>
